--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2181613.512561579</v>
+        <v>2285793.147012651</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>66.76195975981727</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>255.0100803403017</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -823,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>81.77200357366398</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>37.94155991413285</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -911,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>60.31382691113803</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>286.2018547633876</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,16 +1056,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>4.841227454978991</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>41.40282375493719</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1133,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>89.04108111429062</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>182.3635408250718</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>3.87005890328484</v>
       </c>
       <c r="T10" t="n">
-        <v>117.7126336312588</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1376,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>59.96838802184498</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>96.36494467178768</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1661,13 +1663,13 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1774,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1813,13 +1815,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0.4774956074566125</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>197.9962169581611</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>68.64373283592688</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>95.25381996636162</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>26.07046444232116</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2378,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2482,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2539,10 +2541,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>112.1188594237458</v>
       </c>
     </row>
     <row r="26">
@@ -2713,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>41.74133133758863</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>153.2812357980622</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2849,7 +2851,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2953,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>83.06560892428168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>75.21356227238219</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3187,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>103.1686991936203</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>20.22544352992953</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3329,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3424,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>102.1557845699813</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3481,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>248.1322108373771</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>18.16423677622455</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892427864</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3794,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881276</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>164.1303830823236</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808204</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>9.146142788179425</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>168.9775297124196</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1859.132475219475</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="C2" t="n">
-        <v>1490.169958279064</v>
+        <v>1685.375546116517</v>
       </c>
       <c r="D2" t="n">
-        <v>1131.904259672313</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>746.1160070740689</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>739.1705063248654</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>324.0980561698619</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329465</v>
@@ -4346,10 +4348,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520489</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3009.337405520489</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>3009.337405520489</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2635.871647259409</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>2245.732315283597</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.1100998399248</v>
+        <v>2619.144025805563</v>
       </c>
       <c r="C4" t="n">
-        <v>149.1100998399248</v>
+        <v>2619.144025805563</v>
       </c>
       <c r="D4" t="n">
-        <v>149.1100998399248</v>
+        <v>2619.144025805563</v>
       </c>
       <c r="E4" t="n">
-        <v>149.1100998399248</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F4" t="n">
-        <v>149.1100998399248</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G4" t="n">
-        <v>149.1100998399248</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962291</v>
+        <v>2483.053685760609</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596507</v>
+        <v>2737.074383950637</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588485</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886961</v>
+        <v>3075.815702279682</v>
       </c>
       <c r="O4" t="n">
-        <v>809.015235706886</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596446</v>
+        <v>3312.68505425063</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181855</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181855</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181855</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181855</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U4" t="n">
-        <v>631.784138943829</v>
+        <v>2873.828514011449</v>
       </c>
       <c r="V4" t="n">
-        <v>377.0996507379422</v>
+        <v>2619.144025805563</v>
       </c>
       <c r="W4" t="n">
-        <v>377.0996507379422</v>
+        <v>2619.144025805563</v>
       </c>
       <c r="X4" t="n">
-        <v>149.1100998399248</v>
+        <v>2619.144025805563</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.1100998399248</v>
+        <v>2619.144025805563</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4543,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C5" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4586,31 +4588,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3154.392095650268</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3154.392095650268</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2823.329208306698</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2470.560553036583</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2097.094794775503</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="Y5" t="n">
-        <v>1706.955462799692</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>216.6287558445192</v>
+        <v>484.5540527820583</v>
       </c>
       <c r="C7" t="n">
-        <v>216.6287558445192</v>
+        <v>315.6178698541514</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4732,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>879.0659717222889</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>687.3800875491153</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>687.3800875491153</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>398.2772206747588</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>398.2772206747588</v>
+        <v>666.202517612298</v>
       </c>
       <c r="W7" t="n">
-        <v>398.2772206747588</v>
+        <v>666.202517612298</v>
       </c>
       <c r="X7" t="n">
-        <v>398.2772206747588</v>
+        <v>666.202517612298</v>
       </c>
       <c r="Y7" t="n">
-        <v>398.2772206747588</v>
+        <v>666.202517612298</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1197.073083428566</v>
+        <v>1638.360256348809</v>
       </c>
       <c r="C8" t="n">
-        <v>828.1105664881544</v>
+        <v>1638.360256348809</v>
       </c>
       <c r="D8" t="n">
-        <v>828.1105664881544</v>
+        <v>1280.094557742058</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3031.109556343265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>3031.109556343265</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2700.046668999694</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W8" t="n">
-        <v>2347.278013729579</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="X8" t="n">
-        <v>1973.8122554685</v>
+        <v>2415.099428388742</v>
       </c>
       <c r="Y8" t="n">
-        <v>1583.672923492688</v>
+        <v>2024.96009641293</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4880,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757124</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450114</v>
+        <v>827.147398168354</v>
       </c>
       <c r="T10" t="n">
-        <v>610.2994715124267</v>
+        <v>827.147398168354</v>
       </c>
       <c r="U10" t="n">
-        <v>321.1966046380703</v>
+        <v>538.0445312939976</v>
       </c>
       <c r="V10" t="n">
-        <v>66.51211643218343</v>
+        <v>538.0445312939976</v>
       </c>
       <c r="W10" t="n">
-        <v>66.51211643218343</v>
+        <v>538.0445312939976</v>
       </c>
       <c r="X10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,25 +5038,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>3062.606292977538</v>
       </c>
       <c r="M12" t="n">
-        <v>740.5562989961525</v>
+        <v>3659.984780604089</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>3715.300272664238</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>4267.210002903525</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>634.927936255316</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5236,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="14">
@@ -5273,28 +5275,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5312,7 +5314,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5352,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.435061037252</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2159.833596060193</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1870.758369404391</v>
+        <v>1777.464901764891</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.073881198505</v>
+        <v>1522.780413559004</v>
       </c>
       <c r="W16" t="n">
-        <v>1326.656711161544</v>
+        <v>1233.363243522043</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.667160263527</v>
+        <v>1005.373692624026</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>784.5811134804959</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,19 +5512,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C18" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D18" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>2233.355914590558</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>2567.280686761779</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>2877.307316025036</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>3474.685803651587</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>4102.283767206194</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R18" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T18" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U18" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V18" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W18" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X18" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y18" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1053.171308869726</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C19" t="n">
-        <v>884.2351259418192</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D19" t="n">
-        <v>734.1184865294834</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E19" t="n">
-        <v>586.2053929470903</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>439.3154454491799</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>272.1193461640599</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X19" t="n">
-        <v>1455.612352843496</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y19" t="n">
-        <v>1234.819773699966</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5826,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612594</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>3342.537229081859</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998286</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E22" t="n">
-        <v>194.8007783998286</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F22" t="n">
-        <v>194.8007783998286</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>4664.499349931602</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>4481.644515586507</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>4262.043050609448</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>3972.967823953646</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>3744.978273055629</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>3524.185693912098</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5986,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6026,10 +6028,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>849.3843576263199</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998286</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998286</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6187,10 +6189,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>1031.03282245656</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2824.769373306003</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C28" t="n">
-        <v>2824.769373306003</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D28" t="n">
-        <v>2674.652733893667</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>2526.739640311274</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>2379.849692813364</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>4288.376853076439</v>
+        <v>2109.278718126011</v>
       </c>
       <c r="U28" t="n">
-        <v>3999.301626420637</v>
+        <v>1820.203491470209</v>
       </c>
       <c r="V28" t="n">
-        <v>3744.61713821475</v>
+        <v>1565.519003264322</v>
       </c>
       <c r="W28" t="n">
-        <v>3455.19996817779</v>
+        <v>1276.101833227361</v>
       </c>
       <c r="X28" t="n">
-        <v>3227.210417279773</v>
+        <v>1048.112282329344</v>
       </c>
       <c r="Y28" t="n">
-        <v>3006.417838136243</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="29">
@@ -6449,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
         <v>2516.421633107662</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>336.9860575577204</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>169.7899582726004</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558405</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630498</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D34" t="n">
-        <v>2484.576679364215</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E34" t="n">
-        <v>2484.576679364215</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430192</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L36" t="n">
-        <v>577.3880777468471</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M36" t="n">
-        <v>1174.766565373399</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E37" t="n">
-        <v>197.0043242297712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1620.602091394371</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1331.18492135741</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1103.195370459393</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,22 +7162,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7199,25 +7201,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>2726.91413360155</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.562009178173</v>
+        <v>3324.292621228102</v>
       </c>
       <c r="N39" t="n">
-        <v>2283.159972732779</v>
+        <v>3951.890584782709</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2757.723669558404</v>
+        <v>3046.798896214207</v>
       </c>
       <c r="C40" t="n">
-        <v>2588.787486630497</v>
+        <v>2877.8627132863</v>
       </c>
       <c r="D40" t="n">
-        <v>2588.787486630497</v>
+        <v>2727.746073873964</v>
       </c>
       <c r="E40" t="n">
-        <v>2588.787486630497</v>
+        <v>2579.832980291571</v>
       </c>
       <c r="F40" t="n">
-        <v>2588.787486630497</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="G40" t="n">
-        <v>2421.591387345377</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H40" t="n">
-        <v>2337.686731866308</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866308</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296631</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.61201282217</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.01060699811</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q40" t="n">
         <v>4690.833152398593</v>
@@ -7357,25 +7359,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.932614305899</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.33114932884</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U40" t="n">
-        <v>3932.255922673038</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V40" t="n">
-        <v>3677.571434467151</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W40" t="n">
-        <v>3388.154264430191</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X40" t="n">
-        <v>3160.164713532174</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y40" t="n">
-        <v>2939.372134388644</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,28 +7432,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1231.938859683105</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="N42" t="n">
-        <v>1859.536823237711</v>
+        <v>1368.154262550759</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>779.6143379232836</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232836</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2281.17481784054</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2061.573352863481</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1772.498126207679</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V43" t="n">
-        <v>1517.813638001792</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W43" t="n">
-        <v>1228.396467964831</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X43" t="n">
-        <v>1000.406917066814</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>779.6143379232836</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7640,16 +7642,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7828,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2209.233006385774</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1989.631541408715</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1700.556314752913</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1445.871826547026</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1156.454656510065</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>928.4651056120481</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>707.672526468518</v>
       </c>
     </row>
   </sheetData>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>70.88187642684015</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23662,10 +23664,10 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>180.548790394188</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>88.18825743108306</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>79.97174018228547</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>45.04089287986224</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>40.30478226780053</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393069</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24427,10 +24429,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>106.465793928349</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>123.7828069546802</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>64.12421452922604</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>65.54986409393068</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>65.0811505738417</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>45.44677382459204</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>266.2975548066615</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25312,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>43.2652634529499</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25369,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>4.005432486450871</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>127.2568112467067</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194525</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.89590291932097</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>191.8807364711621</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>136.2749052347518</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>12.04875628922503</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822395.1988153139</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.327398212</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675045</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675047</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="I2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="K2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="L2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="M2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="N2" t="n">
-        <v>605359.9497675045</v>
-      </c>
       <c r="O2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405247</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
@@ -26439,7 +26441,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="J4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
         <v>16046.58397189197</v>
@@ -26448,16 +26450,16 @@
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189204</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
-        <v>16046.58397189202</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="P4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.1029948259</v>
+        <v>-914494.1029948258</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.6427327666</v>
+        <v>414250.6427327663</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327662</v>
+        <v>414250.6427327669</v>
       </c>
       <c r="E6" t="n">
-        <v>162778.3741643503</v>
+        <v>162778.3741643499</v>
       </c>
       <c r="F6" t="n">
-        <v>488190.8359717051</v>
+        <v>488190.8359717052</v>
       </c>
       <c r="G6" t="n">
         <v>488190.8359717053</v>
       </c>
       <c r="H6" t="n">
-        <v>488190.8359717052</v>
+        <v>488190.8359717056</v>
       </c>
       <c r="I6" t="n">
         <v>488190.8359717053</v>
       </c>
       <c r="J6" t="n">
-        <v>270659.6335744277</v>
+        <v>270659.6335744276</v>
       </c>
       <c r="K6" t="n">
-        <v>488190.835971705</v>
+        <v>488190.8359717054</v>
       </c>
       <c r="L6" t="n">
         <v>488190.835971705</v>
       </c>
       <c r="M6" t="n">
-        <v>403135.8080361933</v>
+        <v>403135.8080361937</v>
       </c>
       <c r="N6" t="n">
-        <v>488190.8359717054</v>
+        <v>488190.835971705</v>
       </c>
       <c r="O6" t="n">
+        <v>488190.8359717052</v>
+      </c>
+      <c r="P6" t="n">
         <v>488190.835971705</v>
-      </c>
-      <c r="P6" t="n">
-        <v>488190.8359717051</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>287.9210818608657</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>39.59768404701879</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27476,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27543,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>62.9830113406568</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>248.27027829148</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27631,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>143.6041432284821</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>83.52924591508145</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,16 +27776,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>143.7742455632334</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27792,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>47.52932891511014</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>292.8892889579712</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>21.55442931454832</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28026,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>185.8989664281571</v>
       </c>
       <c r="T10" t="n">
-        <v>101.8363156449104</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,19 +31840,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>741.1502463817021</v>
+        <v>187.2159464875244</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,7 +31861,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,10 +32083,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>439.2440297647763</v>
       </c>
       <c r="M15" t="n">
-        <v>583.1096135868578</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32095,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>451.7125911569013</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32336,16 +32338,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,22 +32560,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2529048371032</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,19 +32785,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>558.375963895806</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32806,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32944,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33020,31 +33022,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N27" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33178,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33257,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>363.5371514786841</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33508,22 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>624.1318526922785</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33655,7 +33657,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
         <v>699.5441750817575</v>
@@ -33664,7 +33666,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33731,31 +33733,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>287.9685048518523</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>265.5442652399247</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
@@ -33895,7 +33897,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33968,31 +33970,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>729.0844763571695</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>424.0909547148526</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34211,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>301.1823051500301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>638.9422653403558</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34445,31 +34447,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L45" t="n">
-        <v>514.8598010172138</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034292</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.3038931996671</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106939</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014223</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>609.8085342983688</v>
+        <v>55.87423440419106</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,7 +35509,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="M15" t="n">
-        <v>440.9755796648395</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35743,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>313.1582113770271</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35984,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,22 +36208,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>471.1188709150848</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,19 +36433,19 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>416.2419299737876</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36454,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N27" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36826,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>220.9409070342396</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37156,22 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>481.5356082478341</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37312,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>134.2025531565914</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>37.00975247789211</v>
@@ -37543,7 +37545,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>586.9504424351511</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>281.4947102704082</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>37.00975247789211</v>
@@ -37707,7 +37709,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010411</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37859,19 +37861,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>159.0482712280117</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>496.3460208959114</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="L45" t="n">
-        <v>376.3054212373396</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2285793.147012651</v>
+        <v>2281780.536998656</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -661,10 +661,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>66.76195975981727</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>345.3378010935442</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>166.5331836498691</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824763</v>
+        <v>18.81721868247739</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -867,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>37.94155991413285</v>
+        <v>148.4348925031079</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>286.2018547633876</v>
+        <v>183.1642512458447</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>4.841227454978991</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>180.3522091461935</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>89.04108111429062</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1183,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1293,10 +1293,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1308,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>3.87005890328484</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>59.24654969937816</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710044</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>96.36494467178768</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699708</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.5229983366016</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417083</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>68.17501931583779</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>197.9962169581611</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>68.64373283592688</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>181.2557668969882</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>26.07046444232116</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>176.8394623191248</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2323,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2490,10 +2490,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,16 +2535,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>43.34824157860987</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>112.1188594237458</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>153.2812357980622</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>153.5035027782538</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>107.387005480723</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -2958,7 +2958,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>75.21356227238219</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>68.11883945937053</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>20.22544352992953</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>8.616048582070279</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>248.1322108373771</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>41.16673120696654</v>
       </c>
       <c r="F40" t="n">
-        <v>18.16423677622455</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>77.73359659137233</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>94.30373791808204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -4146,13 +4146,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>31.83025205763987</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>168.9775297124196</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1685.375546116517</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C2" t="n">
-        <v>1685.375546116517</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477181</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
@@ -4351,7 +4351,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y2" t="n">
-        <v>2071.975386180639</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332737</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601587</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927768</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064433</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2619.144025805563</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C4" t="n">
-        <v>2619.144025805563</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D4" t="n">
-        <v>2619.144025805563</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962294</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372934</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596508</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588487</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886963</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068862</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.68505425063</v>
+        <v>907.966238459645</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435997</v>
+        <v>920.8870058181858</v>
       </c>
       <c r="T4" t="n">
-        <v>2912.153322005523</v>
+        <v>699.1203903877118</v>
       </c>
       <c r="U4" t="n">
-        <v>2873.828514011449</v>
+        <v>549.1861555360877</v>
       </c>
       <c r="V4" t="n">
-        <v>2619.144025805563</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="W4" t="n">
-        <v>2619.144025805563</v>
+        <v>294.5016673302008</v>
       </c>
       <c r="X4" t="n">
-        <v>2619.144025805563</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="Y4" t="n">
-        <v>2619.144025805563</v>
+        <v>66.51211643218343</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1575.942324366272</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1575.942324366272</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W5" t="n">
-        <v>2641.774278995485</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="X5" t="n">
-        <v>2352.681496406205</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y5" t="n">
-        <v>1962.542164430393</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>484.5540527820583</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>315.6178698541514</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>310.7277411117484</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V7" t="n">
-        <v>666.202517612298</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W7" t="n">
-        <v>666.202517612298</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X7" t="n">
-        <v>666.202517612298</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y7" t="n">
-        <v>666.202517612298</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1638.360256348809</v>
+        <v>1712.341567565137</v>
       </c>
       <c r="C8" t="n">
-        <v>1638.360256348809</v>
+        <v>1530.167618932618</v>
       </c>
       <c r="D8" t="n">
-        <v>1280.094557742058</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>786.1136677276231</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="W8" t="n">
-        <v>2788.565186649822</v>
+        <v>2862.54649786615</v>
       </c>
       <c r="X8" t="n">
-        <v>2415.099428388742</v>
+        <v>2489.08073960507</v>
       </c>
       <c r="Y8" t="n">
-        <v>2024.96009641293</v>
+        <v>2098.941407629258</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556936</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275809</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614558</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609102</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686061</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064737</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>827.0643955080117</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228011</v>
+        <v>920.7416649986291</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>1159.005863978976</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>1525.704024291641</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513957</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068411</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962569</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695164</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.38058137302</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507435</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275693</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547491</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341958</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577004</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.0549803959803</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C10" t="n">
-        <v>310.0549803959803</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596504</v>
@@ -4986,28 +4986,28 @@
         <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>827.147398168354</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>827.147398168354</v>
+        <v>861.042006121843</v>
       </c>
       <c r="U10" t="n">
-        <v>538.0445312939976</v>
+        <v>861.042006121843</v>
       </c>
       <c r="V10" t="n">
-        <v>538.0445312939976</v>
+        <v>606.3575179159561</v>
       </c>
       <c r="W10" t="n">
-        <v>538.0445312939976</v>
+        <v>606.3575179159561</v>
       </c>
       <c r="X10" t="n">
-        <v>310.0549803959803</v>
+        <v>606.3575179159561</v>
       </c>
       <c r="Y10" t="n">
-        <v>310.0549803959803</v>
+        <v>385.564938772426</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5032,61 +5032,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C12" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D12" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G12" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H12" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I12" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>2567.280686761779</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>3062.606292977538</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>3659.984780604089</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>3715.300272664238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O12" t="n">
-        <v>4267.210002903525</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S12" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T12" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U12" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V12" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W12" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X12" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y12" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.2707707770319</v>
+        <v>513.8536007400605</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121536</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>241.7297566303649</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5238,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611848</v>
       </c>
       <c r="X13" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138304</v>
       </c>
       <c r="Y13" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703003</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="15">
@@ -5345,34 +5345,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>746.8882603249859</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
         <v>2319.799627685893</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>784.5811134804959</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>615.644930552589</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>465.5282911402533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578602</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>244.7670222746419</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1777.464901764891</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1522.780413559004</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1233.363243522043</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1005.373692624026</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>784.5811134804959</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,16 +5512,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>2233.355914590558</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>2567.280686761779</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>2877.307316025036</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>3474.685803651587</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>4102.283767206194</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>4654.193497445481</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.9745311434712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>701.0383482155643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5676,10 +5676,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.822296052219</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.405126015258</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.415575117241</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.622995973711</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5749,52 +5749,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>4664.499349931602</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4481.644515586507</v>
+        <v>2201.291660318396</v>
       </c>
       <c r="T22" t="n">
-        <v>4262.043050609448</v>
+        <v>1981.690195341337</v>
       </c>
       <c r="U22" t="n">
-        <v>3972.967823953646</v>
+        <v>1692.614968685535</v>
       </c>
       <c r="V22" t="n">
-        <v>3972.967823953646</v>
+        <v>1437.930480479648</v>
       </c>
       <c r="W22" t="n">
-        <v>3972.967823953646</v>
+        <v>1148.513310442687</v>
       </c>
       <c r="X22" t="n">
-        <v>3744.978273055629</v>
+        <v>920.52375954467</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263199</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C25" t="n">
-        <v>680.448174698413</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6147,52 +6147,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X25" t="n">
-        <v>1144.284195611858</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y25" t="n">
-        <v>1031.03282245656</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,13 +6238,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>866.4638174991043</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C28" t="n">
-        <v>697.5276345711974</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2109.278718126011</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1820.203491470209</v>
+        <v>1822.407037300151</v>
       </c>
       <c r="V28" t="n">
-        <v>1565.519003264322</v>
+        <v>1567.722549094264</v>
       </c>
       <c r="W28" t="n">
-        <v>1276.101833227361</v>
+        <v>1278.305379057304</v>
       </c>
       <c r="X28" t="n">
-        <v>1048.112282329344</v>
+        <v>1050.315828159286</v>
       </c>
       <c r="Y28" t="n">
-        <v>1048.112282329344</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2532.719182723414</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958734</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>633.9926444679666</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>483.8760050556308</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>483.8760050556308</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>336.9860575577204</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>169.7899582726004</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304621</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369643</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261132</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="32">
@@ -6691,43 +6691,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1652.717886400351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>782.8410298377091</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C34" t="n">
-        <v>782.8410298377091</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253734</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W34" t="n">
-        <v>1413.271624709496</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.282073811479</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.4894946679489</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>700.7543264856228</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C37" t="n">
-        <v>700.7543264856228</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D37" t="n">
-        <v>550.637687073287</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V37" t="n">
-        <v>1620.602091394371</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W37" t="n">
-        <v>1331.18492135741</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X37" t="n">
-        <v>1103.195370459393</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y37" t="n">
-        <v>882.4027913158625</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="38">
@@ -7153,43 +7153,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7204,19 +7204,19 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>2231.588527385791</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>2726.91413360155</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3324.292621228102</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3951.890584782709</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3046.798896214207</v>
+        <v>768.5380889459586</v>
       </c>
       <c r="C40" t="n">
-        <v>2877.8627132863</v>
+        <v>599.6019060180517</v>
       </c>
       <c r="D40" t="n">
-        <v>2727.746073873964</v>
+        <v>449.485266605716</v>
       </c>
       <c r="E40" t="n">
-        <v>2579.832980291571</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F40" t="n">
-        <v>2561.485266376193</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>4221.331149328841</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3966.646661122954</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W40" t="n">
-        <v>3677.229491085994</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X40" t="n">
-        <v>3449.239940187977</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y40" t="n">
-        <v>3228.447361044447</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7478,40 +7478,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G42" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1368.154262550759</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,37 +7545,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>707.672526468518</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C43" t="n">
-        <v>538.7363435406111</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6197041282753</v>
+        <v>634.334587849125</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7066105458822</v>
+        <v>486.4214942667319</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797187</v>
+        <v>339.5315467688215</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>172.3354474837014</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7602,19 +7602,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1338.103121340305</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X43" t="n">
-        <v>1110.113570442288</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y43" t="n">
-        <v>889.3209912987577</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>139.234765840794</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>634.5603720565526</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1231.938859683105</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>267.6802639609656</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2209.233006385774</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1989.631541408715</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1700.556314752913</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1445.871826547026</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1156.454656510065</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>928.4651056120481</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>707.672526468518</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -23418,19 +23418,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>70.88187642684015</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>46.45968844824154</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>72.1196935303861</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>88.18825743108306</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>79.97174018228547</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>70.88187642683982</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>40.30478226780053</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>4.186823682519758</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>208.7894017452181</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>106.465793928349</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>64.12421452922604</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>132.6809716109904</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>72.44497470121425</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24846,7 +24846,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>65.0811505738417</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>99.1279816392573</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>266.2975548066615</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>208.789401745218</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>4.005432486450871</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>105.2672314396026</v>
       </c>
       <c r="F40" t="n">
-        <v>127.2568112467067</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>62.56111625485156</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>191.8807364711621</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,13 +26034,13 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>133.693886234629</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>12.04875628922503</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153136</v>
       </c>
     </row>
     <row r="6">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982118</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
         <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="H2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.9497675047</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="K2" t="n">
-        <v>605359.9497675046</v>
-      </c>
       <c r="L2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.949767504</v>
       </c>
       <c r="N2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675041</v>
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
-        <v>2.07046923605958e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.869591415015748e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.482032298052218e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551169</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.612356754776556e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405246</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040525</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.7441040526</v>
       </c>
       <c r="E4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189212</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26447,7 +26447,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189192</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.1029948258</v>
+        <v>-914494.102994827</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.6427327663</v>
+        <v>414250.6427327669</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327669</v>
+        <v>414250.6427327667</v>
       </c>
       <c r="E6" t="n">
-        <v>162778.3741643499</v>
+        <v>162430.9949099931</v>
       </c>
       <c r="F6" t="n">
-        <v>488190.8359717052</v>
+        <v>487843.4567173482</v>
       </c>
       <c r="G6" t="n">
-        <v>488190.8359717053</v>
+        <v>487843.456717348</v>
       </c>
       <c r="H6" t="n">
-        <v>488190.8359717056</v>
+        <v>487843.456717348</v>
       </c>
       <c r="I6" t="n">
-        <v>488190.8359717053</v>
+        <v>487843.456717348</v>
       </c>
       <c r="J6" t="n">
-        <v>270659.6335744276</v>
+        <v>270312.2543200708</v>
       </c>
       <c r="K6" t="n">
-        <v>488190.8359717054</v>
+        <v>487843.456717348</v>
       </c>
       <c r="L6" t="n">
-        <v>488190.835971705</v>
+        <v>487843.4567173483</v>
       </c>
       <c r="M6" t="n">
-        <v>403135.8080361937</v>
+        <v>402788.4287818363</v>
       </c>
       <c r="N6" t="n">
-        <v>488190.835971705</v>
+        <v>487843.456717348</v>
       </c>
       <c r="O6" t="n">
-        <v>488190.8359717052</v>
+        <v>487843.4567173481</v>
       </c>
       <c r="P6" t="n">
-        <v>488190.835971705</v>
+        <v>487843.4567173479</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973552</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,10 +27381,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>287.9210818608657</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>40.90013756250937</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-1.762145984685048e-12</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.147526518252562e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>248.27027829148</v>
+        <v>137.7769457025049</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>83.52924591508145</v>
+        <v>186.5668494326243</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>143.7742455632334</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>184.9206826248141</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>292.8892889579712</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28028,10 +28028,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>185.8989664281571</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>160.302399576791</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28310,7 +28310,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>-8.27461264024969e-12</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31603,7 +31603,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026441</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31840,7 +31840,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31852,10 +31852,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>187.2159464875244</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>604.7968300725072</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,25 +32077,25 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>439.2440297647763</v>
+        <v>307.981445813583</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>375.599612848529</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>451.7125911569013</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779101</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,13 +32338,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>164.9290651940687</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>558.375963895806</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32946,34 +32946,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>269.1634560719508</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>300.5543663814922</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>166.2270851128133</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>624.1318526922785</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>287.9685048518523</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33760,16 +33760,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>424.0909547148526</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34134,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34213,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>638.9422653403558</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>183.7183104822601</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034295</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966713</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286438</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840383</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230784</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567574</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106942</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014226</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597743</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35488,7 +35488,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35500,10 +35500,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>55.87423440419106</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>462.2005856280628</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>300.6896499849021</v>
+        <v>169.4270660337089</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>235.6178387625075</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>313.1582113770271</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334657</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>22.33282074962425</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>416.2419299737876</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>127.0294221499325</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>161.999986601618</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>20.54758114884936</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>481.5356082478341</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>150.1270658774933</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>281.4947102704082</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37782,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>496.3460208959114</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>45.87687150790109</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_25_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2281780.536998656</v>
+        <v>2283541.067301443</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>364.0991602828551</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>345.3378010935442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498691</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>157.6450804554007</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -819,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>122.1695696835036</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>148.4348925031079</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>152.5938874041462</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,10 +949,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>183.1642512458447</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>72.0880274467727</v>
+        <v>72.08802744677259</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>180.3522091461935</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>177.2979137777587</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>72.0880274467727</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>59.24654969937816</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634792</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710044</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,19 +1533,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>102.1557845699708</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.5229983366016</v>
+        <v>160.9670287625426</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417083</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444117</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>68.17501931583779</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>20.92847288553416</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890316</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>75.75905456204164</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,10 +2061,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>181.2557668969882</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,19 +2238,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>176.8394623191248</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>43.34824157860987</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>153.5035027782538</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>107.387005480723</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,13 +3189,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>68.11883945937053</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>126.926382450742</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>8.616048582070279</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3562,7 +3562,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>41.16673120696654</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,10 +3717,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>214.0647808588581</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3906,16 +3906,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>77.73359659137233</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>31.83025205763987</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4188,7 +4188,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.318139675982</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1660.609998322718</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1302.344299715967</v>
       </c>
       <c r="E2" t="n">
         <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477181</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4351,31 +4351,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450754</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X2" t="n">
-        <v>2424.744041450754</v>
+        <v>2029.572515263129</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.917979740103</v>
+        <v>2029.572515263129</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811085</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999815</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387302</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332748</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601598</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
@@ -4406,55 +4406,55 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C4" t="n">
-        <v>66.51211643218343</v>
+        <v>751.950822890278</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>601.8341834779422</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>601.8341834779422</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>454.9442359800319</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>287.2413993547508</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962294</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372934</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596508</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588487</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886963</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068862</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>907.966238459645</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181858</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>699.1203903877118</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>549.1861555360877</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>294.5016673302008</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>294.5016673302008</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>2201.7190780849</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1832.756561144488</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>1474.490862537738</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>1088.702609939494</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>677.7167051498861</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>262.6442549948826</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520489</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>2824.323010322666</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y5" t="n">
-        <v>2434.183678346854</v>
+        <v>2588.318918149022</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4716,16 +4716,16 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,43 +4734,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1712.341567565137</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>1530.167618932618</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276231</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>375.1277629380156</v>
+        <v>119.5410613073142</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136264</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136264</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.54649786615</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2489.08073960507</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>2098.941407629258</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1702.096133556936</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>1527.643104275809</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>1378.708694614558</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>1219.471239609102</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>1072.936681635988</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>936.5735814686061</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>846.0716871064737</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I9" t="n">
-        <v>827.0643955080117</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>920.7416649986291</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>1159.005863978976</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>1525.704024291641</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1972.980349513957</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>2446.503393068411</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>3167.964263962569</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>3325.605821609169</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>3196.023581695164</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>3003.38058137302</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2775.312734507435</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>2540.160626275693</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>2285.923269547491</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>2078.071769341958</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1870.311470577004</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>385.564938772426</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>216.6287558445191</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218339</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218339</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>861.042006121843</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>861.042006121843</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>606.3575179159561</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>606.3575179159561</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>606.3575179159561</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>385.564938772426</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5032,61 +5032,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694705</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5108,34 +5108,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245714</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>776.17510664033</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400605</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121536</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>241.7297566303649</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>93.81666304797182</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797182</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5238,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611848</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138304</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703003</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168591</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362666</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5281,49 +5281,49 @@
         <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5345,37 +5345,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273896</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516141</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L15" t="n">
-        <v>746.8882603249859</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G16" t="n">
-        <v>244.7670222746419</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782956</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2425.823211978711</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2242.968377633615</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2023.366912656556</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1734.291686000754</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1479.607197794867</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1190.190027757906</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="17">
@@ -5497,13 +5497,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5676,10 +5676,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5700,16 +5700,16 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2303.393082295247</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2083.791617318188</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V19" t="n">
-        <v>1505.299220625425</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W19" t="n">
         <v>1505.299220625425</v>
@@ -5749,13 +5749,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5764,25 +5764,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>699.7311804011399</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>699.7311804011399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2201.291660318396</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1981.690195341337</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1692.614968685535</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1437.930480479648</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1148.513310442687</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>920.52375954467</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>699.7311804011399</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>724.7519863413023</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1644.59975125005</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>1355.182581213089</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>1127.193030315072</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>906.400451171542</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,13 +6238,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6320,13 +6320,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1822.407037300151</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1567.722549094264</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1278.305379057304</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1050.315828159286</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.315828159286</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6451,31 +6451,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068009</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6557,13 +6557,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2532.719182723414</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614391</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,19 +6688,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6718,16 +6718,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6794,13 +6794,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>768.5380889459586</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>699.7311804011399</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888042</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1688.385853854707</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1398.968683817746</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1170.979132919728</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>950.1865537761984</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,10 +6949,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>724.7519863413023</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>906.400451171542</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7156,40 +7156,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>768.5380889459586</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>599.6019060180517</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>449.485266605716</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1688.385853854707</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1398.968683817746</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1170.979132919728</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.1865537761984</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7402,13 +7402,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,10 +7484,10 @@
         <v>178.4809954028056</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>803.2707707770319</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>634.334587849125</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>486.4214942667319</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>339.5315467688215</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>172.3354474837014</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>984.9192356072716</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>734.6461798836013</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>565.7099969556945</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>415.5933575433587</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>267.6802639609656</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>267.6802639609656</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>916.2946447138411</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>46.45968844824154</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>125.5559695740484</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.989519660128281e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>72.1196935303861</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>45.44677382458754</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>105.267231439603</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>70.88187642683982</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>4.186823682519758</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>208.7894017452181</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>132.6809716109904</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>72.44497470121425</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1279816392573</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>19.50758019582713</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>208.789401745218</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>105.2672314396026</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>72.11969353038609</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>62.56111625485156</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>133.693886234629</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>822395.1988153136</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.1988153139</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>822395.198815314</v>
+        <v>822395.1988153141</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>822395.1988153141</v>
+        <v>822395.198815314</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982118</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="I2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="J2" t="n">
         <v>605359.9497675045</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.9497675041</v>
-      </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675041</v>
       </c>
       <c r="L2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="M2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="M2" t="n">
-        <v>605359.949767504</v>
-      </c>
       <c r="N2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="O2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.949767504</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675041</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073548</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.869591415015748e-10</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551169</v>
+        <v>85055.02793551167</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.612356754776556e-10</v>
+        <v>1.074904503184371e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405246</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405254</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.7441040525</v>
       </c>
-      <c r="D4" t="n">
-        <v>93596.7441040526</v>
-      </c>
       <c r="E4" t="n">
-        <v>16046.58397189197</v>
+        <v>16046.58397189206</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189212</v>
+        <v>16046.58397189208</v>
       </c>
       <c r="G4" t="n">
         <v>16046.58397189197</v>
@@ -26447,7 +26447,7 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189192</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914494.102994827</v>
+        <v>-914494.1029948262</v>
       </c>
       <c r="C6" t="n">
-        <v>414250.6427327669</v>
+        <v>414250.6427327666</v>
       </c>
       <c r="D6" t="n">
-        <v>414250.6427327667</v>
+        <v>414250.6427327665</v>
       </c>
       <c r="E6" t="n">
-        <v>162430.9949099931</v>
+        <v>162743.6362389148</v>
       </c>
       <c r="F6" t="n">
-        <v>487843.4567173482</v>
+        <v>488156.0980462696</v>
       </c>
       <c r="G6" t="n">
-        <v>487843.456717348</v>
+        <v>488156.0980462693</v>
       </c>
       <c r="H6" t="n">
-        <v>487843.456717348</v>
+        <v>488156.0980462695</v>
       </c>
       <c r="I6" t="n">
-        <v>487843.456717348</v>
+        <v>488156.0980462692</v>
       </c>
       <c r="J6" t="n">
-        <v>270312.2543200708</v>
+        <v>270624.8956489922</v>
       </c>
       <c r="K6" t="n">
-        <v>487843.456717348</v>
+        <v>488156.0980462693</v>
       </c>
       <c r="L6" t="n">
-        <v>487843.4567173483</v>
+        <v>488156.0980462693</v>
       </c>
       <c r="M6" t="n">
-        <v>402788.4287818363</v>
+        <v>403101.0701107578</v>
       </c>
       <c r="N6" t="n">
-        <v>487843.456717348</v>
+        <v>488156.0980462694</v>
       </c>
       <c r="O6" t="n">
-        <v>487843.4567173481</v>
+        <v>488156.0980462693</v>
       </c>
       <c r="P6" t="n">
-        <v>487843.4567173479</v>
+        <v>488156.0980462692</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022926</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022929</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697355</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973552</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27053,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.306832697355</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>17.83120978940667</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.90013756250937</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.762145984685048e-12</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>22.58544523081717</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>137.7769457025049</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>142.0138769831742</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,10 +27669,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>186.5668494326243</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>107.7439527351646</v>
+        <v>107.7439527351647</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>184.9206826248141</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>150.4543446923762</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351646</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>160.302399576791</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28089,10 +28089,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.414636683656336e-12</v>
       </c>
       <c r="C11" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28140,22 +28140,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28310,7 +28310,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>-8.27461264024969e-12</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -28326,22 +28326,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28380,16 +28380,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28550,7 +28550,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>5.596142951335111e-12</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -29802,7 +29802,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,28 +31837,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551115</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>604.7968300725072</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420754</v>
@@ -32083,22 +32083,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>307.981445813583</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>361.7519118779101</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32338,13 +32338,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>361.7519118779092</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,16 +32575,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>166.2270851128133</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>353.130074847795</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34383,7 +34383,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034295</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966713</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286438</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840383</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230784</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
-        <v>139.3114638567574</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106942</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014226</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,28 +35485,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075249</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>462.2005856280628</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754087</v>
@@ -35731,22 +35731,22 @@
         <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>169.4270660337089</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>219.1556674334657</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -35986,7 +35986,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>219.1556674334648</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,25 +36679,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>20.54758114884936</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
